--- a/src/main/resources/xlsx/pcs/pr-5_1.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5_1.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">初步人选名单!$A$4:$O$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">初步人选名单!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,20 +67,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人title人选名单
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="华文中宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“stage”阶段，党委组织部汇总）</t>
-    </r>
+    <t>所在单位</t>
+  </si>
+  <si>
+    <t>中国共产党北京师范大学第十三次党员代表大会代表候选人title人选名单
+（“stage”阶段，党委组织部汇总）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,18 +124,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="华文中宋"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,10 +188,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,24 +203,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,15 +675,15 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="8" width="5.625" customWidth="1"/>
@@ -697,77 +695,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
@@ -789,12 +787,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -806,19 +802,19 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -829,7 +825,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>

--- a/src/main/resources/xlsx/pcs/pr-5_1.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5_1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B9E876-1F12-4C30-A444-FD98E9EF5472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="3450" yWindow="6750" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>性别</t>
   </si>
@@ -70,23 +71,27 @@
     <t>所在单位</t>
   </si>
   <si>
-    <t>中国共产党北京师范大学第十三次党员代表大会代表候选人title人选名单
-（“stage”阶段，党委组织部汇总）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全校共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>说明：各分党委按多于应选代表名额rate的比例确定代表候选人初步人选（即“nextStageShort”名单）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title
+（“stage”阶段，党委组织部汇总）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +232,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,9 +699,9 @@
     <col min="13" max="13" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -711,9 +716,9 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -728,9 +733,9 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -745,7 +750,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -786,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -800,8 +805,11 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
+      <c r="O5" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>

--- a/src/main/resources/xlsx/pcs/pr-5_1.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5_1.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B9E876-1F12-4C30-A444-FD98E9EF5472}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="6750" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="6750" windowWidth="22905" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">初步人选名单!$A$4:$O$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">初步人选名单!$A$4:$M$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">初步人选名单!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>性别</t>
   </si>
@@ -76,10 +75,6 @@
   </si>
   <si>
     <t>说明：各分党委按多于应选代表名额rate的比例确定代表候选人初步人选（即“nextStageShort”名单）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +227,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,11 +671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -699,9 +694,9 @@
     <col min="13" max="13" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -716,7 +711,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -733,7 +728,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -750,7 +745,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -791,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -805,11 +800,8 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="O5" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>

--- a/src/main/resources/xlsx/pcs/pr-5_1.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5_1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19FF9CD-5710-477A-BA74-9F11D642F460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="6750" windowWidth="22905" windowHeight="11850"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>性别</t>
   </si>
@@ -38,12 +39,6 @@
   </si>
   <si>
     <t>职别</t>
-  </si>
-  <si>
-    <t>职务</t>
-  </si>
-  <si>
-    <t>票数</t>
   </si>
   <si>
     <t>序号</t>
@@ -67,9 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所在单位</t>
-  </si>
-  <si>
     <t>全校共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,13 +72,35 @@
   <si>
     <t>title
 （“stage”阶段，党委组织部汇总）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的党支部数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的
+党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的正式
+党员数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -194,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,17 +217,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -224,10 +232,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -671,101 +682,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
     <col min="5" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="7.875" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
@@ -780,17 +798,23 @@
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -800,28 +824,30 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
     <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/pr-5_1.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5_1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19FF9CD-5710-477A-BA74-9F11D642F460}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47CCD60-5B62-435B-8193-B457E94C652B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6990" yWindow="45" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明：各分党委按多于应选代表名额rate的比例确定代表候选人初步人选（即“nextStageShort”名单）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title
 （“stage”阶段，党委组织部汇总）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +90,10 @@
   <si>
     <t>推荐提名的正式
 党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,6 +220,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -228,12 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -686,7 +686,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,61 +707,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -771,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -798,23 +798,23 @@
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -828,19 +828,19 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/src/main/resources/xlsx/pcs/pr-5_1.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5_1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47CCD60-5B62-435B-8193-B457E94C652B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB015FF-E402-482F-B32A-FD80A4352092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="45" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="855" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +90,10 @@
   </si>
   <si>
     <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +686,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -771,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>4</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/xlsx/pcs/pr-5_1.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5_1.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB015FF-E402-482F-B32A-FD80A4352092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EE7489-2B61-4810-A459-4D901E6AE4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="855" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">初步人选名单!$A$4:$M$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">初步人选名单!$A$4:$N$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">初步人选名单!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>性别</t>
   </si>
   <si>
     <t>民族</t>
-  </si>
-  <si>
-    <t>学历</t>
   </si>
   <si>
     <t>入党时间</t>
@@ -94,6 +91,14 @@
   </si>
   <si>
     <t>所在单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,13 +316,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -365,13 +370,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -683,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -698,17 +703,18 @@
     <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="7.875" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="16" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -724,10 +730,11 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -743,10 +750,11 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -762,55 +770,59 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
@@ -826,8 +838,9 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -841,13 +854,14 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/pr-5_1.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-5_1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EE7489-2B61-4810-A459-4D901E6AE4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -35,9 +34,6 @@
     <t>入党时间</t>
   </si>
   <si>
-    <t>职别</t>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,13 +95,17 @@
   </si>
   <si>
     <t>学位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +243,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,11 +687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,7 +714,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -734,7 +734,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -754,7 +754,7 @@
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -774,52 +774,52 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
